--- a/documents/機能一覧_C2.xlsx
+++ b/documents/機能一覧_C2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\webアプリ\作成ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D40C3B-45C9-4363-8496-C97385EA73F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891E15F6-524D-4231-A428-9F372F4A00B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,27 +554,6 @@
     <t>QA003</t>
   </si>
   <si>
-    <t>自分以外の人が投稿したトピックに
-名前(任意)、画像(任意)、本文を入れて
-返信する</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヘンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>評価数</t>
     <rPh sb="0" eb="3">
       <t>ヒョウカスウ</t>
@@ -1191,6 +1170,18 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿したトピックに
+名前(任意)、画像(任意)、本文を入れて
+返信する</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1307,19 +1298,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1661,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1700,7 +1691,7 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="11">
         <v>44354</v>
       </c>
       <c r="I3" s="10"/>
@@ -1709,15 +1700,15 @@
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:11" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
@@ -1754,13 +1745,13 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
@@ -1772,7 +1763,7 @@
       <c r="H8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1780,10 +1771,10 @@
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="11"/>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1796,7 +1787,7 @@
       <c r="H9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1804,10 +1795,10 @@
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="11"/>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1820,7 +1811,7 @@
       <c r="H10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1828,7 +1819,7 @@
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="2"/>
@@ -1844,7 +1835,7 @@
       <c r="H11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1852,7 +1843,7 @@
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="2"/>
@@ -1879,7 +1870,7 @@
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="2"/>
@@ -1901,7 +1892,7 @@
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="2"/>
@@ -1923,7 +1914,7 @@
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2"/>
@@ -1945,7 +1936,7 @@
       <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2"/>
@@ -1967,10 +1958,10 @@
       <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1983,9 +1974,9 @@
         <v>51</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1993,7 +1984,7 @@
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2"/>
@@ -2007,7 +1998,7 @@
       <c r="H18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2015,7 +2006,7 @@
       <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2"/>
@@ -2029,7 +2020,7 @@
       <c r="H19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2037,7 +2028,7 @@
       <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2"/>
@@ -2051,9 +2042,9 @@
         <v>63</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2061,21 +2052,21 @@
       <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2083,21 +2074,21 @@
       <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2105,7 +2096,7 @@
       <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2"/>
@@ -2114,12 +2105,12 @@
         <v>52</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2127,7 +2118,7 @@
       <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2"/>
@@ -2136,12 +2127,12 @@
         <v>65</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2149,21 +2140,21 @@
       <c r="B25" s="2">
         <v>18</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2171,25 +2162,25 @@
       <c r="B26" s="2">
         <v>19</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2197,21 +2188,21 @@
       <c r="B27" s="2">
         <v>20</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2219,23 +2210,23 @@
       <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I28" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2243,45 +2234,45 @@
       <c r="B29" s="2">
         <v>22</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <v>23</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2289,21 +2280,21 @@
       <c r="B31" s="2">
         <v>24</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2311,21 +2302,21 @@
       <c r="B32" s="2">
         <v>25</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2333,25 +2324,25 @@
       <c r="B33" s="2">
         <v>26</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="H33" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I33" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2359,97 +2350,97 @@
       <c r="B34" s="2">
         <v>27</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="54" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>28</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="H35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="54" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>29</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="54" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <v>30</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>111</v>
+      <c r="I37" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <v>31</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2"/>
@@ -2463,7 +2454,7 @@
       <c r="B39" s="2">
         <v>32</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="2"/>
@@ -2477,7 +2468,7 @@
       <c r="B40" s="2">
         <v>33</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2"/>

--- a/documents/機能一覧_C2.xlsx
+++ b/documents/機能一覧_C2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\webアプリ\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891E15F6-524D-4231-A428-9F372F4A00B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A456EE-74D0-4E30-AC13-9E21B7920D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,23 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="126">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1182,6 +1193,49 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CB004</t>
+  </si>
+  <si>
+    <t>コンフォーム(削除確認)</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタンを押した際、
+本当に削除していいのかを確認する
+OKなら削除、キャンセルならその画面</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1272,7 +1326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,6 +1356,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1650,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K40"/>
+  <dimension ref="B2:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1678,10 +1735,10 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="E3" s="4" t="s">
@@ -1691,24 +1748,24 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="12">
         <v>44354</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:11" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
@@ -2028,27 +2085,25 @@
       <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>14</v>
       </c>
@@ -2056,15 +2111,17 @@
         <v>17</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>23</v>
@@ -2080,13 +2137,13 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>23</v>
@@ -2102,19 +2159,19 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <v>17</v>
       </c>
@@ -2124,19 +2181,19 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <v>18</v>
       </c>
@@ -2146,13 +2203,13 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>23</v>
@@ -2165,20 +2222,16 @@
       <c r="C26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>23</v>
@@ -2191,16 +2244,20 @@
       <c r="C27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>23</v>
@@ -2214,23 +2271,21 @@
         <v>17</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <v>22</v>
       </c>
@@ -2238,21 +2293,23 @@
         <v>17</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <v>23</v>
       </c>
@@ -2260,20 +2317,18 @@
         <v>17</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="27" x14ac:dyDescent="0.15">
@@ -2284,21 +2339,23 @@
         <v>17</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
         <v>25</v>
       </c>
@@ -2308,66 +2365,64 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
         <v>26</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <v>27</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="E34" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>110</v>
+        <v>121</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="54" x14ac:dyDescent="0.15">
@@ -2378,15 +2433,17 @@
         <v>17</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>110</v>
@@ -2402,13 +2459,13 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>110</v>
@@ -2424,19 +2481,19 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" ht="54" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <v>31</v>
       </c>
@@ -2445,14 +2502,22 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>17</v>
@@ -2466,7 +2531,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>17</v>
@@ -2477,6 +2542,20 @@
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
       <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B41" s="2">
+        <v>33</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
